--- a/exceleservices/Arendaploshad.xlsx
+++ b/exceleservices/Arendaploshad.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Площадки</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Малый теплый манеж ("бочка"), Открытый плац с освещением в вечернее время</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
@@ -411,56 +414,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
